--- a/runs/run697/NotionalETEOutput697.xlsx
+++ b/runs/run697/NotionalETEOutput697.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER2_State_Update</t>
+    <t>Missile_HELLMASKER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2_20.MISSILE_HELLMASKER2_20</t>
+    <t>MISSILE_HELLMASKER1_151.MISSILE_HELLMASKER1_151</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2</t>
+    <t>MISSILE_HELLMASKER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1533.196142970553</v>
+        <v>-1515.786489705389</v>
       </c>
       <c r="J2">
-        <v>2041.116681124937</v>
+        <v>1951.782201307044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1506.461086788794</v>
+        <v>-1435.51581261654</v>
       </c>
       <c r="J3">
-        <v>1948.936112461455</v>
+        <v>1959.522499114884</v>
       </c>
       <c r="K3">
-        <v>312.2809642812551</v>
+        <v>289.0990689799685</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1412.30405770808</v>
+        <v>-1379.051199188256</v>
       </c>
       <c r="J4">
-        <v>1985.296089042129</v>
+        <v>1825.02612306124</v>
       </c>
       <c r="K4">
-        <v>577.0437422592936</v>
+        <v>565.2083074949104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1380.125793986346</v>
+        <v>-1389.939071901145</v>
       </c>
       <c r="J5">
-        <v>1875.862316607356</v>
+        <v>1818.831900352033</v>
       </c>
       <c r="K5">
-        <v>898.405820838608</v>
+        <v>893.7440067048123</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1417.752710412755</v>
+        <v>-1438.358076610534</v>
       </c>
       <c r="J6">
-        <v>1785.26159392861</v>
+        <v>1864.683957220607</v>
       </c>
       <c r="K6">
-        <v>1140.922385012398</v>
+        <v>1085.037881849863</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1358.883098169124</v>
+        <v>-1345.636447551444</v>
       </c>
       <c r="J7">
-        <v>1677.256502731378</v>
+        <v>1819.400860796427</v>
       </c>
       <c r="K7">
-        <v>1340.395901583035</v>
+        <v>1338.947626963469</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1373.598658295916</v>
+        <v>-1299.3476790286</v>
       </c>
       <c r="J8">
-        <v>1730.331496202239</v>
+        <v>1633.852984088133</v>
       </c>
       <c r="K8">
-        <v>1625.552017505203</v>
+        <v>1538.347519363098</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.3448598643218</v>
+        <v>-96.94282985283677</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1314.871548159116</v>
+        <v>-1251.297190491557</v>
       </c>
       <c r="J9">
-        <v>1666.204614679568</v>
+        <v>1616.922551332406</v>
       </c>
       <c r="K9">
-        <v>1730.640280474927</v>
+        <v>1792.112003704285</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.1972407887412</v>
+        <v>216.9517638661886</v>
       </c>
       <c r="G10">
-        <v>-80.92144761574076</v>
+        <v>-86.44599698635386</v>
       </c>
       <c r="H10">
-        <v>833.9925068699235</v>
+        <v>863.0367422505158</v>
       </c>
       <c r="I10">
-        <v>-1290.720578454592</v>
+        <v>-1271.045008336883</v>
       </c>
       <c r="J10">
-        <v>1664.163694887122</v>
+        <v>1555.392433105313</v>
       </c>
       <c r="K10">
-        <v>2020.480727095882</v>
+        <v>2103.491402606081</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>167.5620046055851</v>
+        <v>170.4668121071267</v>
       </c>
       <c r="G11">
-        <v>-66.40592430561532</v>
+        <v>-69.60034854366603</v>
       </c>
       <c r="H11">
-        <v>1107.388125633223</v>
+        <v>1062.433773553759</v>
       </c>
       <c r="I11">
-        <v>-1162.756862683452</v>
+        <v>-1237.443118454561</v>
       </c>
       <c r="J11">
-        <v>1623.183832218292</v>
+        <v>1572.910595750175</v>
       </c>
       <c r="K11">
-        <v>2097.166306209646</v>
+        <v>2191.069319698125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.985476442727</v>
+        <v>138.9434729179569</v>
       </c>
       <c r="G12">
-        <v>-49.30895268644431</v>
+        <v>-49.28710590897004</v>
       </c>
       <c r="H12">
-        <v>1226.10662844976</v>
+        <v>1195.639470523511</v>
       </c>
       <c r="I12">
-        <v>-1144.601879644254</v>
+        <v>-1125.723798650225</v>
       </c>
       <c r="J12">
-        <v>1518.074738471637</v>
+        <v>1521.003898142196</v>
       </c>
       <c r="K12">
-        <v>2420.436600617681</v>
+        <v>2316.782669344928</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>117.9958463239397</v>
+        <v>126.8948093270581</v>
       </c>
       <c r="G13">
-        <v>-34.48453695245625</v>
+        <v>-35.3220591202621</v>
       </c>
       <c r="H13">
-        <v>1320.93621761245</v>
+        <v>1215.50377059309</v>
       </c>
       <c r="I13">
-        <v>-1136.094525556346</v>
+        <v>-1102.897769676383</v>
       </c>
       <c r="J13">
-        <v>1467.75710105636</v>
+        <v>1392.080124654862</v>
       </c>
       <c r="K13">
-        <v>2441.779619107201</v>
+        <v>2409.810566080937</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.4555354596616</v>
+        <v>109.2223987554288</v>
       </c>
       <c r="G14">
-        <v>-17.81675186421642</v>
+        <v>-18.27713749794411</v>
       </c>
       <c r="H14">
-        <v>1348.640113296619</v>
+        <v>1321.338295041839</v>
       </c>
       <c r="I14">
-        <v>-1128.571831207141</v>
+        <v>-1128.862854647753</v>
       </c>
       <c r="J14">
-        <v>1400.635932671025</v>
+        <v>1441.749279508038</v>
       </c>
       <c r="K14">
-        <v>2726.313071544998</v>
+        <v>2526.741213291873</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.63365762182326</v>
+        <v>100.1816045690414</v>
       </c>
       <c r="G15">
-        <v>-0.9390539581237377</v>
+        <v>-0.9441811585632794</v>
       </c>
       <c r="H15">
-        <v>1444.284332420315</v>
+        <v>1437.230631593882</v>
       </c>
       <c r="I15">
-        <v>-1043.182255536766</v>
+        <v>-1071.74794710559</v>
       </c>
       <c r="J15">
-        <v>1375.674799368625</v>
+        <v>1351.282206917796</v>
       </c>
       <c r="K15">
-        <v>2779.942008455015</v>
+        <v>2884.73979737444</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.30483077158685</v>
+        <v>90.54706830731874</v>
       </c>
       <c r="G16">
-        <v>15.12681264834245</v>
+        <v>15.05955322845845</v>
       </c>
       <c r="H16">
-        <v>1496.195921354809</v>
+        <v>1371.633180035459</v>
       </c>
       <c r="I16">
-        <v>-996.1891894797517</v>
+        <v>-1023.781440973838</v>
       </c>
       <c r="J16">
-        <v>1304.816136639385</v>
+        <v>1301.402636588275</v>
       </c>
       <c r="K16">
-        <v>2987.182845783242</v>
+        <v>2862.464094497834</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.66516486319742</v>
+        <v>82.73677401263915</v>
       </c>
       <c r="G17">
-        <v>30.64848426757801</v>
+        <v>30.6201369770345</v>
       </c>
       <c r="H17">
-        <v>1533.043890333433</v>
+        <v>1418.413985049634</v>
       </c>
       <c r="I17">
-        <v>-976.4210572118502</v>
+        <v>-946.3927641114142</v>
       </c>
       <c r="J17">
-        <v>1259.102027030672</v>
+        <v>1246.523495263265</v>
       </c>
       <c r="K17">
-        <v>2929.93824365327</v>
+        <v>3015.810382236789</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.30673140476273</v>
+        <v>85.00295407482085</v>
       </c>
       <c r="G18">
-        <v>50.35035766006531</v>
+        <v>49.58268567357911</v>
       </c>
       <c r="H18">
-        <v>1461.835194054927</v>
+        <v>1532.316630462354</v>
       </c>
       <c r="I18">
-        <v>-910.5532690692911</v>
+        <v>-907.473742256263</v>
       </c>
       <c r="J18">
-        <v>1242.620393501734</v>
+        <v>1218.453705742953</v>
       </c>
       <c r="K18">
-        <v>3091.504279703603</v>
+        <v>3194.328644478686</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.88432505234915</v>
+        <v>76.84330983865131</v>
       </c>
       <c r="G19">
-        <v>64.36883828940047</v>
+        <v>67.53813932495387</v>
       </c>
       <c r="H19">
-        <v>1553.523802900517</v>
+        <v>1561.128933607763</v>
       </c>
       <c r="I19">
-        <v>-879.8199512688207</v>
+        <v>-858.4722894391547</v>
       </c>
       <c r="J19">
-        <v>1227.032929264288</v>
+        <v>1177.593005774919</v>
       </c>
       <c r="K19">
-        <v>3094.757490999059</v>
+        <v>3095.500401671336</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.44962518975899</v>
+        <v>71.96527168542261</v>
       </c>
       <c r="G20">
-        <v>82.00996097906609</v>
+        <v>78.51584038670842</v>
       </c>
       <c r="H20">
-        <v>1537.76486781328</v>
+        <v>1548.360325682353</v>
       </c>
       <c r="I20">
-        <v>-876.2724234309597</v>
+        <v>-823.6062717273542</v>
       </c>
       <c r="J20">
-        <v>1151.069139160138</v>
+        <v>1071.135837166765</v>
       </c>
       <c r="K20">
-        <v>3130.925428788287</v>
+        <v>2996.507041554933</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.35918007740349</v>
+        <v>74.0848757686549</v>
       </c>
       <c r="G21">
-        <v>93.48811860560856</v>
+        <v>94.48354661748451</v>
       </c>
       <c r="H21">
-        <v>1542.817388740279</v>
+        <v>1657.848061359221</v>
       </c>
       <c r="I21">
-        <v>-791.0424101289937</v>
+        <v>-779.639331860903</v>
       </c>
       <c r="J21">
-        <v>1096.344519111875</v>
+        <v>1038.676711721223</v>
       </c>
       <c r="K21">
-        <v>3075.396625254052</v>
+        <v>3048.620381940199</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.89332614380339</v>
+        <v>68.1064311762579</v>
       </c>
       <c r="G22">
-        <v>118.4461321752916</v>
+        <v>112.9713850433115</v>
       </c>
       <c r="H22">
-        <v>1610.678450681219</v>
+        <v>1656.370856663586</v>
       </c>
       <c r="I22">
-        <v>-766.1395559515128</v>
+        <v>-764.9859010968341</v>
       </c>
       <c r="J22">
-        <v>995.0384425447517</v>
+        <v>1066.062926622254</v>
       </c>
       <c r="K22">
-        <v>3091.364559350927</v>
+        <v>3330.28118951415</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.88797175264703</v>
+        <v>63.23440833712883</v>
       </c>
       <c r="G23">
-        <v>137.13509743085</v>
+        <v>129.0260411672967</v>
       </c>
       <c r="H23">
-        <v>1690.167390992614</v>
+        <v>1629.993071080449</v>
       </c>
       <c r="I23">
-        <v>-710.4695349149372</v>
+        <v>-732.200715641689</v>
       </c>
       <c r="J23">
-        <v>1005.319350326207</v>
+        <v>1015.66223337285</v>
       </c>
       <c r="K23">
-        <v>3062.148470657399</v>
+        <v>3105.194177945583</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.31323471524142</v>
+        <v>60.67697525323067</v>
       </c>
       <c r="G24">
-        <v>146.3262871582833</v>
+        <v>143.572872210603</v>
       </c>
       <c r="H24">
-        <v>1614.816012046526</v>
+        <v>1671.566428683724</v>
       </c>
       <c r="I24">
-        <v>-638.8846973577957</v>
+        <v>-619.1243415414046</v>
       </c>
       <c r="J24">
-        <v>894.7670321737537</v>
+        <v>941.673704691778</v>
       </c>
       <c r="K24">
-        <v>3192.732517303217</v>
+        <v>3106.127857465464</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.54988258354636</v>
+        <v>62.95729202594441</v>
       </c>
       <c r="G25">
-        <v>163.6114725697083</v>
+        <v>158.9783457889727</v>
       </c>
       <c r="H25">
-        <v>1646.651199861886</v>
+        <v>1748.535762207152</v>
       </c>
       <c r="I25">
-        <v>-570.2654535500806</v>
+        <v>-613.1502447331399</v>
       </c>
       <c r="J25">
-        <v>849.0462870320051</v>
+        <v>871.5840704202999</v>
       </c>
       <c r="K25">
-        <v>3109.397297279562</v>
+        <v>3089.166514737568</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.79421448664878</v>
+        <v>57.56214866257597</v>
       </c>
       <c r="G26">
-        <v>181.3537198384166</v>
+        <v>189.3659109222854</v>
       </c>
       <c r="H26">
-        <v>1693.570328685789</v>
+        <v>1609.869579133788</v>
       </c>
       <c r="I26">
-        <v>-547.2419144972615</v>
+        <v>-569.7555039770881</v>
       </c>
       <c r="J26">
-        <v>851.1400592313407</v>
+        <v>823.8075048271879</v>
       </c>
       <c r="K26">
-        <v>3027.361761958213</v>
+        <v>3232.405659287087</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.225154062126</v>
+        <v>58.64305833125925</v>
       </c>
       <c r="G27">
-        <v>193.7898691016586</v>
+        <v>201.3247368786406</v>
       </c>
       <c r="H27">
-        <v>1775.387076580021</v>
+        <v>1687.46997122018</v>
       </c>
       <c r="I27">
-        <v>-474.9246586419695</v>
+        <v>-500.0070158747814</v>
       </c>
       <c r="J27">
-        <v>798.0173838711426</v>
+        <v>811.4935014262459</v>
       </c>
       <c r="K27">
-        <v>3156.674843245209</v>
+        <v>2979.528953252036</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.92320126276639</v>
+        <v>57.60645673510158</v>
       </c>
       <c r="G28">
-        <v>218.8881560876091</v>
+        <v>223.6441853574237</v>
       </c>
       <c r="H28">
-        <v>1672.877589900147</v>
+        <v>1670.830260604497</v>
       </c>
       <c r="I28">
-        <v>-429.8432312352002</v>
+        <v>-434.8461146267298</v>
       </c>
       <c r="J28">
-        <v>745.5714142716646</v>
+        <v>766.802298423066</v>
       </c>
       <c r="K28">
-        <v>2970.135443675122</v>
+        <v>3115.189000650051</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.80907823878913</v>
+        <v>54.75338720927148</v>
       </c>
       <c r="G29">
-        <v>235.2668532459966</v>
+        <v>236.7060799892008</v>
       </c>
       <c r="H29">
-        <v>1797.538537514217</v>
+        <v>1725.377440601024</v>
       </c>
       <c r="I29">
-        <v>-367.4929146010911</v>
+        <v>-378.6673537617667</v>
       </c>
       <c r="J29">
-        <v>657.6455327684974</v>
+        <v>676.5893429970104</v>
       </c>
       <c r="K29">
-        <v>2892.359371509824</v>
+        <v>2861.864261564492</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.92655174782042</v>
+        <v>53.71916668327707</v>
       </c>
       <c r="G30">
-        <v>237.1187513964523</v>
+        <v>236.1183938817913</v>
       </c>
       <c r="H30">
-        <v>1714.475588156412</v>
+        <v>1812.257713061943</v>
       </c>
       <c r="I30">
-        <v>-334.3156851840902</v>
+        <v>-317.6966487337569</v>
       </c>
       <c r="J30">
-        <v>616.1564800709108</v>
+        <v>617.2506163312047</v>
       </c>
       <c r="K30">
-        <v>2722.380013729708</v>
+        <v>2912.100269591023</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.07455334614509</v>
+        <v>53.41001038572907</v>
       </c>
       <c r="G31">
-        <v>264.2261374098638</v>
+        <v>256.8850681352481</v>
       </c>
       <c r="H31">
-        <v>1799.17465575041</v>
+        <v>1686.934960183703</v>
       </c>
       <c r="I31">
-        <v>-256.840459685316</v>
+        <v>-265.9088240269968</v>
       </c>
       <c r="J31">
-        <v>584.641675924019</v>
+        <v>560.1815591290352</v>
       </c>
       <c r="K31">
-        <v>2601.978828489022</v>
+        <v>2588.608287191345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.36415864904781</v>
+        <v>49.05887470087135</v>
       </c>
       <c r="G32">
-        <v>269.9007523900166</v>
+        <v>271.8524124781969</v>
       </c>
       <c r="H32">
-        <v>1743.20500020364</v>
+        <v>1797.234902170892</v>
       </c>
       <c r="I32">
-        <v>-217.8933453563999</v>
+        <v>-210.6362427045718</v>
       </c>
       <c r="J32">
-        <v>554.4110178418354</v>
+        <v>556.598756348209</v>
       </c>
       <c r="K32">
-        <v>2431.814315006123</v>
+        <v>2496.581312975802</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.29920000538944</v>
+        <v>49.47563376998658</v>
       </c>
       <c r="G33">
-        <v>308.708478283764</v>
+        <v>295.9938108182152</v>
       </c>
       <c r="H33">
-        <v>1831.624063067791</v>
+        <v>1731.965722414309</v>
       </c>
       <c r="I33">
-        <v>-146.0589655631714</v>
+        <v>-150.3000228705721</v>
       </c>
       <c r="J33">
-        <v>483.9296172395093</v>
+        <v>486.5676663397117</v>
       </c>
       <c r="K33">
-        <v>2397.202481279436</v>
+        <v>2290.797516498647</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.01065499663984</v>
+        <v>48.48819698802338</v>
       </c>
       <c r="G34">
-        <v>326.4660912912433</v>
+        <v>317.5983683574165</v>
       </c>
       <c r="H34">
-        <v>1732.671039633232</v>
+        <v>1719.794219667639</v>
       </c>
       <c r="I34">
-        <v>-79.40150353240698</v>
+        <v>-82.42392436368367</v>
       </c>
       <c r="J34">
-        <v>430.173712218948</v>
+        <v>442.5388560542046</v>
       </c>
       <c r="K34">
-        <v>2303.690220878934</v>
+        <v>2307.051919395505</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.18975080540974</v>
+        <v>50.60341966104694</v>
       </c>
       <c r="G35">
-        <v>342.808783632909</v>
+        <v>332.2767316466507</v>
       </c>
       <c r="H35">
-        <v>1764.793150295817</v>
+        <v>1765.317993936141</v>
       </c>
       <c r="I35">
-        <v>-18.98061349291852</v>
+        <v>-18.16791539009493</v>
       </c>
       <c r="J35">
-        <v>396.0971859658954</v>
+        <v>379.3420685134166</v>
       </c>
       <c r="K35">
-        <v>2119.507928383963</v>
+        <v>2115.586769759884</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.73373947450745</v>
+        <v>48.60751263978012</v>
       </c>
       <c r="G36">
-        <v>360.1800183447691</v>
+        <v>328.6843173937736</v>
       </c>
       <c r="H36">
-        <v>1912.88619774525</v>
+        <v>1771.268144851367</v>
       </c>
       <c r="I36">
-        <v>48.96742355739695</v>
+        <v>49.00688248945827</v>
       </c>
       <c r="J36">
-        <v>341.1382714028211</v>
+        <v>351.2600434216254</v>
       </c>
       <c r="K36">
-        <v>1852.85735699056</v>
+        <v>1877.119440467041</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.50833444553858</v>
+        <v>46.21270570686478</v>
       </c>
       <c r="G37">
-        <v>363.8948364153148</v>
+        <v>347.3488079244969</v>
       </c>
       <c r="H37">
-        <v>1885.852683846349</v>
+        <v>1872.031004714853</v>
       </c>
       <c r="I37">
-        <v>117.3890714737114</v>
+        <v>115.2873449066647</v>
       </c>
       <c r="J37">
-        <v>299.9704089738728</v>
+        <v>306.4996795425378</v>
       </c>
       <c r="K37">
-        <v>1634.043354271446</v>
+        <v>1636.360902296386</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.60603620173676</v>
+        <v>46.57810456892563</v>
       </c>
       <c r="G38">
-        <v>387.9476476809372</v>
+        <v>378.3301273392099</v>
       </c>
       <c r="H38">
-        <v>1823.917875797043</v>
+        <v>1928.89530061489</v>
       </c>
       <c r="I38">
-        <v>175.4316239129655</v>
+        <v>183.8734538024993</v>
       </c>
       <c r="J38">
-        <v>253.093288117088</v>
+        <v>256.0318649758426</v>
       </c>
       <c r="K38">
-        <v>1416.722199569383</v>
+        <v>1361.415105960982</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.42753429215546</v>
+        <v>44.5379342937146</v>
       </c>
       <c r="G39">
-        <v>402.8278813611452</v>
+        <v>386.8824265231451</v>
       </c>
       <c r="H39">
-        <v>1946.374953403619</v>
+        <v>1774.579245045232</v>
       </c>
       <c r="I39">
-        <v>248.4037860655264</v>
+        <v>258.3854071332877</v>
       </c>
       <c r="J39">
-        <v>191.2946341326285</v>
+        <v>199.0704563646765</v>
       </c>
       <c r="K39">
-        <v>1175.056944558809</v>
+        <v>1145.130266948309</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.12931714630531</v>
+        <v>44.10124286911103</v>
       </c>
       <c r="G40">
-        <v>428.7575705833581</v>
+        <v>411.8208058031339</v>
       </c>
       <c r="H40">
-        <v>1902.713713299413</v>
+        <v>1899.09918684908</v>
       </c>
       <c r="I40">
-        <v>321.3454389553385</v>
+        <v>328.4683893962778</v>
       </c>
       <c r="J40">
-        <v>151.164082131007</v>
+        <v>151.0446752053809</v>
       </c>
       <c r="K40">
-        <v>866.9171294745117</v>
+        <v>893.9315930464867</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.06436591360637</v>
+        <v>42.94481081954355</v>
       </c>
       <c r="G41">
-        <v>413.9037534785948</v>
+        <v>443.5000330635604</v>
       </c>
       <c r="H41">
-        <v>1953.507610579497</v>
+        <v>1960.951958052327</v>
       </c>
       <c r="I41">
-        <v>387.2869835155868</v>
+        <v>407.2701341909243</v>
       </c>
       <c r="J41">
-        <v>99.14334395359305</v>
+        <v>103.4846083459971</v>
       </c>
       <c r="K41">
-        <v>647.5113194772135</v>
+        <v>647.4368847680274</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.33902711059729</v>
+        <v>44.58812081530719</v>
       </c>
       <c r="G42">
-        <v>450.4158818755211</v>
+        <v>436.7354283066283</v>
       </c>
       <c r="H42">
-        <v>1820.310897676625</v>
+        <v>1835.923661204906</v>
       </c>
       <c r="I42">
-        <v>496.2606134250968</v>
+        <v>468.5110371345113</v>
       </c>
       <c r="J42">
-        <v>54.17472515930502</v>
+        <v>53.54991987493673</v>
       </c>
       <c r="K42">
-        <v>346.6738587033007</v>
+        <v>342.2718832373692</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.52521834915959</v>
+        <v>43.98853909654327</v>
       </c>
       <c r="G43">
-        <v>482.3895258506727</v>
+        <v>470.603598353186</v>
       </c>
       <c r="H43">
-        <v>1882.500775403294</v>
+        <v>1948.919466592957</v>
       </c>
       <c r="I43">
-        <v>565.7859918729232</v>
+        <v>532.442793944726</v>
       </c>
       <c r="J43">
-        <v>5.038919008543804</v>
+        <v>5.432353916670738</v>
       </c>
       <c r="K43">
-        <v>34.16741387573752</v>
+        <v>34.07543022332987</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.60325803317931</v>
+        <v>42.09528492098402</v>
       </c>
       <c r="G44">
-        <v>485.0554521496402</v>
+        <v>497.532658695761</v>
       </c>
       <c r="H44">
-        <v>1850.377845863427</v>
+        <v>1908.639493009397</v>
       </c>
       <c r="I44">
-        <v>658.205638144613</v>
+        <v>642.714918442752</v>
       </c>
       <c r="J44">
-        <v>-44.00229291950898</v>
+        <v>-42.41800294206305</v>
       </c>
       <c r="K44">
-        <v>-273.004460350685</v>
+        <v>-271.9591097151163</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.64287291029998</v>
+        <v>41.9624467326701</v>
       </c>
       <c r="G45">
-        <v>492.7644846455657</v>
+        <v>491.8321304143375</v>
       </c>
       <c r="H45">
-        <v>1960.621446860919</v>
+        <v>1901.282335846953</v>
       </c>
       <c r="I45">
-        <v>732.9267818277643</v>
+        <v>695.461928304437</v>
       </c>
       <c r="J45">
-        <v>-93.67959688954446</v>
+        <v>-92.16685578508685</v>
       </c>
       <c r="K45">
-        <v>-608.7962285320316</v>
+        <v>-640.534663082331</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.45287359507096</v>
+        <v>42.4692317028566</v>
       </c>
       <c r="G46">
-        <v>506.5845101558602</v>
+        <v>512.5043649697013</v>
       </c>
       <c r="H46">
-        <v>1926.163435085457</v>
+        <v>1862.62526831939</v>
       </c>
       <c r="I46">
-        <v>809.4077118471532</v>
+        <v>837.2275166917148</v>
       </c>
       <c r="J46">
-        <v>-145.739779961357</v>
+        <v>-146.1011151031679</v>
       </c>
       <c r="K46">
-        <v>-986.8356277750952</v>
+        <v>-988.5242901925361</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.20587308987578</v>
+        <v>39.18313522697694</v>
       </c>
       <c r="G47">
-        <v>528.3962674213669</v>
+        <v>509.4868649157488</v>
       </c>
       <c r="H47">
-        <v>1953.40644595216</v>
+        <v>2016.719799927182</v>
       </c>
       <c r="I47">
-        <v>919.3614505353673</v>
+        <v>872.52881823032</v>
       </c>
       <c r="J47">
-        <v>-197.6212161722528</v>
+        <v>-194.3491810022716</v>
       </c>
       <c r="K47">
-        <v>-1320.215135846175</v>
+        <v>-1381.146884833989</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.41705369425513</v>
+        <v>37.69200194520532</v>
       </c>
       <c r="G48">
-        <v>547.0050408025245</v>
+        <v>561.8095413421401</v>
       </c>
       <c r="H48">
-        <v>1886.059578481955</v>
+        <v>1899.206274075661</v>
       </c>
       <c r="I48">
-        <v>935.2473691362736</v>
+        <v>1017.997887042856</v>
       </c>
       <c r="J48">
-        <v>-245.5833783883285</v>
+        <v>-248.2669648093214</v>
       </c>
       <c r="K48">
-        <v>-1621.191624964322</v>
+        <v>-1761.416083196279</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.66026213416215</v>
+        <v>37.79328484654005</v>
       </c>
       <c r="G49">
-        <v>549.4403946851904</v>
+        <v>574.4590777968884</v>
       </c>
       <c r="H49">
-        <v>1978.717744474575</v>
+        <v>1914.172610943283</v>
       </c>
       <c r="I49">
-        <v>1117.434104204805</v>
+        <v>1019.525125886939</v>
       </c>
       <c r="J49">
-        <v>-275.2418371916585</v>
+        <v>-274.0982710517593</v>
       </c>
       <c r="K49">
-        <v>-2054.630546026983</v>
+        <v>-2135.841864606671</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.32560798623312</v>
+        <v>37.36732450408138</v>
       </c>
       <c r="G50">
-        <v>602.2539666966775</v>
+        <v>559.9042434014407</v>
       </c>
       <c r="H50">
-        <v>1896.70472840073</v>
+        <v>1901.210956500071</v>
       </c>
       <c r="I50">
-        <v>1176.87188285877</v>
+        <v>1219.794278499033</v>
       </c>
       <c r="J50">
-        <v>-330.8780499565488</v>
+        <v>-349.823645511297</v>
       </c>
       <c r="K50">
-        <v>-2399.697795222382</v>
+        <v>-2608.779959827322</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.80126462562841</v>
+        <v>37.71573772305808</v>
       </c>
       <c r="G51">
-        <v>582.9033241440143</v>
+        <v>616.0820823530279</v>
       </c>
       <c r="H51">
-        <v>1920.037081673215</v>
+        <v>2021.755928741805</v>
       </c>
       <c r="I51">
-        <v>1277.099014988696</v>
+        <v>1267.476977390169</v>
       </c>
       <c r="J51">
-        <v>-398.0977049807186</v>
+        <v>-376.6761724063395</v>
       </c>
       <c r="K51">
-        <v>-2920.118582457439</v>
+        <v>-3062.286702142122</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.4987105536572</v>
+        <v>37.05007821088694</v>
       </c>
       <c r="G52">
-        <v>624.9687400904218</v>
+        <v>639.9758116306173</v>
       </c>
       <c r="H52">
-        <v>1991.85106966341</v>
+        <v>1987.109778143195</v>
       </c>
       <c r="I52">
-        <v>1351.838007041798</v>
+        <v>1379.525470130982</v>
       </c>
       <c r="J52">
-        <v>-423.148419744118</v>
+        <v>-418.7910091203013</v>
       </c>
       <c r="K52">
-        <v>-3422.14397295841</v>
+        <v>-3345.792025271738</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.57299393940556</v>
+        <v>35.62912671031131</v>
       </c>
       <c r="G53">
-        <v>622.3295674817965</v>
+        <v>644.3467548136272</v>
       </c>
       <c r="H53">
-        <v>1912.8466625071</v>
+        <v>2042.235552350837</v>
       </c>
       <c r="I53">
-        <v>1435.243596248588</v>
+        <v>1463.654753298675</v>
       </c>
       <c r="J53">
-        <v>-460.9705709191932</v>
+        <v>-501.0047703439353</v>
       </c>
       <c r="K53">
-        <v>-3940.817788501633</v>
+        <v>-3683.355781135587</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.44372774760173</v>
+        <v>35.25008415889457</v>
       </c>
       <c r="G54">
-        <v>654.2548113723892</v>
+        <v>668.2646882437791</v>
       </c>
       <c r="H54">
-        <v>1988.977390304452</v>
+        <v>1955.253637276071</v>
       </c>
       <c r="I54">
-        <v>1582.739277142123</v>
+        <v>1583.40008050856</v>
       </c>
       <c r="J54">
-        <v>-519.3502211948406</v>
+        <v>-540.394545439315</v>
       </c>
       <c r="K54">
-        <v>-4309.915868765442</v>
+        <v>-4410.874388003796</v>
       </c>
     </row>
   </sheetData>
